--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -17,6 +17,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>Kiểm tra mã order</t>
+  </si>
+  <si>
+    <t>orderNumberLabel</t>
+  </si>
+  <si>
+    <t>trackingNumberLabel_innertext</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
@@ -157,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,13 +179,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -470,16 +514,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.2421875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customFormat="1"/>
+    <row r="1" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>5522631883</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5522631883</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5522599316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +585,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -536,7 +604,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,7 +623,7 @@
     <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -18,15 +18,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Kiểm tra mã order</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
   <si>
     <t>orderNumberLabel</t>
   </si>
   <si>
+    <t>orderNumberLabel1</t>
+  </si>
+  <si>
     <t>trackingNumberLabel_innertext</t>
+  </si>
+  <si>
+    <t>trackingNumberLabel_innertext1</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -209,10 +221,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -514,39 +526,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.2421875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.98828125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.046875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.5078125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.2265625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.41796875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>5522631883</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>5522631883</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>5522599316</v>
       </c>
+      <c r="D2" s="1">
+        <v>5522599316</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5522631883</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,18 +592,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95"/>
+  <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.41796875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -582,7 +627,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>
@@ -593,7 +638,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -601,10 +646,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.078125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="9.41796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1"/>
+    <row r="1" ht="14.95" customFormat="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>5522631883</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5522631883</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5522599316</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -620,7 +688,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1"/>

--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Kiểm tra mã order</t>
   </si>
@@ -26,16 +26,19 @@
     <t>Username</t>
   </si>
   <si>
-    <t>orderNumberLabel</t>
+    <t>orderNumberLabel1</t>
   </si>
   <si>
-    <t>orderNumberLabel1</t>
+    <t>orderNumberLabel</t>
   </si>
   <si>
     <t>trackingNumberLabel_innertext</t>
   </si>
   <si>
     <t>trackingNumberLabel_innertext1</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>Password</t>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -539,16 +542,18 @@
     <col min="3" max="3" width="19.5078125" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.2265625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.41796875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.41796875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.95" customFormat="1">
+    <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
@@ -557,22 +562,21 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>5522631883</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5522631883</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>5522599316</v>
       </c>
@@ -582,8 +586,13 @@
       <c r="E2" s="1">
         <v>5522631883</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="1">
+        <v>5522631883</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5522631883</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,7 +604,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -609,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -656,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>

--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -9,8 +9,8 @@
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Checkout" sheetId="3" r:id="rId3"/>
-    <sheet name="Order" sheetId="4" r:id="rId4"/>
+    <sheet name="Order" sheetId="3" r:id="rId3"/>
+    <sheet name="Checkout" sheetId="4" r:id="rId4"/>
     <sheet name="Logout" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="40001"/>
@@ -18,30 +18,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Kiểm tra mã order</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>orderNumberLabel1</t>
   </si>
   <si>
     <t>orderNumberLabel</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>trackingNumberLabel_innertext1</t>
+  </si>
+  <si>
     <t>trackingNumberLabel_innertext</t>
   </si>
   <si>
-    <t>trackingNumberLabel_innertext1</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -529,70 +556,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col min="1" max="1" width="20.98828125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.046875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.5078125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.2265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.7578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.10546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.3671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.46484375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.2265625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.41796875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.96484375" style="2" customWidth="1"/>
+    <col min="10" max="17" width="9.41796875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
+      <c r="Q1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1">
-        <v>5522599316</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5522599316</v>
-      </c>
-      <c r="E2" s="1">
         <v>5522631883</v>
       </c>
-      <c r="F2" s="1">
-        <v>5522631883</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5522631883</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,10 +672,10 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -647,28 +704,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="9.078125" style="2" customWidth="1"/>
-    <col min="2" max="4" width="9.41796875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="29.8671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.9375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.35546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.71484375" style="2" customWidth="1"/>
+    <col min="7" max="13" width="9.41796875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -676,11 +762,19 @@
         <v>5522631883</v>
       </c>
       <c r="B2" s="1">
+        <v>5522599316</v>
+      </c>
+      <c r="C2" s="1">
         <v>5522631883</v>
       </c>
-      <c r="C2" s="3">
-        <v>5522599316</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -577,7 +577,7 @@
     <col min="18" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
         <v>3</v>
       </c>

--- a/TestAOS/Default.xlsx
+++ b/TestAOS/Default.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>Kiểm tra mã order</t>
   </si>
@@ -29,16 +29,22 @@
     <t>J</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>orderNumberLabel1</t>
+    <t>O</t>
   </si>
   <si>
     <t>orderNumberLabel</t>
@@ -47,18 +53,15 @@
     <t>D</t>
   </si>
   <si>
-    <t>trackingNumberLabel_innertext1</t>
-  </si>
-  <si>
-    <t>trackingNumberLabel_innertext</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>Password</t>
   </si>
   <si>
@@ -69,6 +72,18 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>TestResult</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>trackingNumbert</t>
+  </si>
+  <si>
+    <t>trackingNumber</t>
   </si>
 </sst>
 </file>
@@ -559,7 +574,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -573,61 +588,65 @@
     <col min="7" max="7" width="10.2265625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.41796875" style="2" customWidth="1"/>
     <col min="9" max="9" width="25.96484375" style="2" customWidth="1"/>
-    <col min="10" max="17" width="9.41796875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="9.41796875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="25.828125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="26.90625" style="2" customWidth="1"/>
+    <col min="16" max="17" width="9.41796875" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -672,10 +691,10 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -704,10 +723,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -718,43 +737,52 @@
     <col min="4" max="4" width="30.265625" style="2" customWidth="1"/>
     <col min="5" max="5" width="40.35546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="20.71484375" style="2" customWidth="1"/>
-    <col min="7" max="13" width="9.41796875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.078125" style="2" customWidth="1"/>
+    <col min="7" max="14" width="9.41796875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.078125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -764,9 +792,7 @@
       <c r="B2" s="1">
         <v>5522599316</v>
       </c>
-      <c r="C2" s="1">
-        <v>5522631883</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -774,7 +800,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="3"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
